--- a/src/ExperimentStats/outputTables/SummaryStatistics.xlsx
+++ b/src/ExperimentStats/outputTables/SummaryStatistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\ExperimentStats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19CC75-F851-4C9D-B176-5A6E4407F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE4409-9DDA-488B-889E-85034757CD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="12456" tabRatio="813" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22344" yWindow="900" windowWidth="19260" windowHeight="9816" tabRatio="813" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,21 @@
     <sheet name="TLX" sheetId="7" r:id="rId10"/>
     <sheet name="FracPartialStops" sheetId="9" r:id="rId11"/>
     <sheet name="FracCompleteStops" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="197">
   <si>
     <t>Model: performance ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
@@ -432,13 +444,208 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>Saccade</t>
+  </si>
+  <si>
+    <t>Turn rate</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Freezing Time</t>
+  </si>
+  <si>
+    <t>Turning whuile still</t>
+  </si>
+  <si>
+    <t>0.0106(0.580)</t>
+  </si>
+  <si>
+    <t>0.0713(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0131(0.497)</t>
+  </si>
+  <si>
+    <t>-0.0103(0.592)</t>
+  </si>
+  <si>
+    <t>0.0105(0.6397)</t>
+  </si>
+  <si>
+    <t>0.0726(0.0012)</t>
+  </si>
+  <si>
+    <t>-0.0101(0.6519)</t>
+  </si>
+  <si>
+    <t>-0.0105(0.6390)</t>
+  </si>
+  <si>
+    <t>0.0066(0.5475)</t>
+  </si>
+  <si>
+    <t>0.0552(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.008(0.4684)</t>
+  </si>
+  <si>
+    <t>-0.0069(0.5237)</t>
+  </si>
+  <si>
+    <t>0.0086(0.5809)</t>
+  </si>
+  <si>
+    <t>0.0616(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0143(0.3619)</t>
+  </si>
+  <si>
+    <t>-0.0133(0.3964)</t>
+  </si>
+  <si>
+    <t>0.0109(0.3502)</t>
+  </si>
+  <si>
+    <t>-0.0383(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0154(0.1487)</t>
+  </si>
+  <si>
+    <t>0.0255(0.0168)</t>
+  </si>
+  <si>
+    <t>0.0209(0.1695)</t>
+  </si>
+  <si>
+    <t>-0.0473(0.0018)</t>
+  </si>
+  <si>
+    <t>0.0458(0.0025)</t>
+  </si>
+  <si>
+    <t>0.0601(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0245(0.1898)</t>
+  </si>
+  <si>
+    <t>-0.0531(0.0045)</t>
+  </si>
+  <si>
+    <t>0.0581(0.0019)</t>
+  </si>
+  <si>
+    <t>0.0807(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0277(0.202)</t>
+  </si>
+  <si>
+    <t>-0.0686(0.0016)</t>
+  </si>
+  <si>
+    <t>0.0833(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.1197(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0366(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.1386(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0330(0.0025)</t>
+  </si>
+  <si>
+    <t>0.0062(0.5719)</t>
+  </si>
+  <si>
+    <t>-0.1425(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0670(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0357(0.0218)</t>
+  </si>
+  <si>
+    <t>0.0162(0.0218)</t>
+  </si>
+  <si>
+    <t>-0.0685(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0137(0.5750)</t>
+  </si>
+  <si>
+    <t>-0.0118(0.5381)</t>
+  </si>
+  <si>
+    <t>-0.0288(0.1328)</t>
+  </si>
+  <si>
+    <t>-0.1589 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0737(0.0022)</t>
+  </si>
+  <si>
+    <t>-0.0774(0.0013)</t>
+  </si>
+  <si>
+    <t>0.0656(0.0064)</t>
+  </si>
+  <si>
+    <t>0.002(0.858)</t>
+  </si>
+  <si>
+    <t>-0.0023(0.833)</t>
+  </si>
+  <si>
+    <t>-0.0034(0.755)</t>
+  </si>
+  <si>
+    <t>0(0.965)</t>
+  </si>
+  <si>
+    <t>0.004(0.812)</t>
+  </si>
+  <si>
+    <t>-0.0014(0.925)</t>
+  </si>
+  <si>
+    <t>-0.0034(0.826)</t>
+  </si>
+  <si>
+    <t>0.0012(0.941)</t>
+  </si>
+  <si>
+    <t>0.0063(0.743)</t>
+  </si>
+  <si>
+    <t>0.003(0.877)</t>
+  </si>
+  <si>
+    <t>0.0042(0.829)</t>
+  </si>
+  <si>
+    <t>0.001(0.957)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +688,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,18 +740,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,11 +976,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -881,11 +1111,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -943,11 +1173,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1005,11 +1235,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1067,11 +1297,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1129,11 +1359,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1191,11 +1421,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1279,11 +1509,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1353,7 +1583,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,11 +1594,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1428,6 +1658,454 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C35C239-08E8-4EB2-83B2-7C72784C2413}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,11 +2127,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1584,11 +2262,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1719,11 +2397,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1805,11 +2483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2193,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1353C-FE0A-4F37-A9E0-D5C8333DFC4F}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2215,19 +2893,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2249,7 +2927,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2269,7 +2947,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2965,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
@@ -2305,7 +2983,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2325,7 +3003,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>114</v>
       </c>
@@ -2344,19 +3022,19 @@
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G8" s="7"/>
@@ -2467,19 +3145,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2572,31 +3250,31 @@
       <c r="B21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2689,16 +3367,16 @@
       <c r="B28" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>130</v>
       </c>
     </row>
